--- a/table_details/table_details_all.xlsx
+++ b/table_details/table_details_all.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF534C81-92F7-429E-B28B-20559E60ED90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D557F012-0B6C-4B4F-A4B0-B00BBBE409CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-5" sheetId="2" r:id="rId1"/>
     <sheet name="6-9" sheetId="6" r:id="rId2"/>
-    <sheet name="16-19" sheetId="8" r:id="rId3"/>
-    <sheet name="10-15" sheetId="7" r:id="rId4"/>
+    <sheet name="10-15" sheetId="7" r:id="rId3"/>
+    <sheet name="16-19" sheetId="8" r:id="rId4"/>
     <sheet name="20-23" sheetId="9" r:id="rId5"/>
     <sheet name="24-26" sheetId="10" r:id="rId6"/>
-    <sheet name="View(1-7)" sheetId="11" r:id="rId7"/>
+    <sheet name="View(1-3)" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="307">
   <si>
     <t>表名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +506,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>需求的推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>recommend_stage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -725,6 +729,10 @@
   </si>
   <si>
     <t>处理结果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommend_resluts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1246,6 +1254,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>积分变化规则表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1343,6 +1355,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SRM_OPEN</t>
+  </si>
+  <si>
     <t>推荐人姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1376,50 +1391,6 @@
   </si>
   <si>
     <t>rp_uni_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recommend_results</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rr_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_info_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求的处理阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rr_sta_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rec_sta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRM系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recommend_notify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recstu_email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1609,7 +1580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1644,7 +1615,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1828,11 +1799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:I23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1898,7 +1869,7 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1935,9 +1906,6 @@
       <c r="K4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1981,9 +1949,6 @@
       <c r="K6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2019,9 +1984,6 @@
       <c r="K7" t="s">
         <v>118</v>
       </c>
-      <c r="L7" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -2031,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2039,7 +2001,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2047,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2088,10 +2050,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2472,16 +2434,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:L22 B38 B6:L6 B30:F30 B14:C14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:L22 B38 B6:K6 B30:F30 B14:C14" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"k,m,k&amp;m,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:D36 B20:L20 B4:E4 G4:L4 B28:F28 B12:C12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:D36 B20:L20 B4:E4 G4:K4 B28:F28 B12:C12" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38:D38" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38:D38" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"k,m,k&amp;m"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{A0B6BE8E-FC8B-471C-84BE-24CFF94A9FEA}">
       <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext,smalldatetime"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2491,11 +2453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2850,13 +2812,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B14 B22 B30:D30 D22 D14 D6 F22" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B14 B22 B30:D30 D22 D14 D6 F22" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"k,m,k&amp;m,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12 B28:D28 B20:F20 B4:D4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12 B28:D28 B20:F20 B4:D4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 E22 C22 C6" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 E22 C22 C6" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"k,m,k&amp;m"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2865,409 +2827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F16" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24:E24 B15:I15 B32:C32 B6:C6" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>"k,m,k&amp;m,n"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:C30 B13:I13 B22:E22 B4:C4" xr:uid="{00000000-0002-0000-0300-000001000000}">
-      <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92048D4E-400A-4C99-98D4-96FDDBC09EAE}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G23"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3290,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3298,7 +2862,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3306,10 +2870,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3344,10 +2908,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3358,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -3367,7 +2931,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -3379,7 +2943,7 @@
         <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3414,10 +2978,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -3425,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -3433,7 +2997,7 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -3441,49 +3005,49 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -3570,7 +3134,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>29</v>
@@ -3620,49 +3184,49 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -3670,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -3678,7 +3242,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -3686,10 +3250,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -3727,10 +3291,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3738,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3746,7 +3310,7 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3754,10 +3318,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3795,10 +3359,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3806,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3814,7 +3378,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3822,10 +3386,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3863,22 +3427,22 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20" xr:uid="{6AF3EB75-9AB4-4D25-870E-B1E1D91C1566}">
       <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext,smalldatetime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 B28:C28 B36:C36 B44:C44 M20:P20 B20:K20 B12:C12" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 B28:C28 B36:C36 B44:C44 M20:P20 B20:K20 B12:C12" xr:uid="{5F2589E5-390C-42E2-B3EB-32EDCEB3C623}">
       <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B30:C30 B38:C38 B46:C46 B22:P22 B14:C14" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B30:C30 B38:C38 B46:C46 B22:P22 B14:C14" xr:uid="{042C3C6D-321F-4B93-A50F-35A79A2BEC25}">
       <formula1>"k,m,k&amp;m,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3886,12 +3450,410 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D6809F-1A5A-41FB-870C-741234E0C666}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24:E24 B15:I15 B32:C32 B6:C6" xr:uid="{9F5C3E75-CB6F-4BAE-94EE-4069DB47DC7C}">
+      <formula1>"k,m,k&amp;m,n"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:C30 B13:I13 B22:E22 B4:C4" xr:uid="{4CCE52F2-DBFC-47D5-BEE0-160A32FC4C8F}">
+      <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70F3BA1-9592-4700-A3FB-45635F483D0D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3909,10 +3871,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C1" s="8"/>
     </row>
@@ -3921,7 +3883,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="11"/>
@@ -3929,20 +3891,20 @@
     </row>
     <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D3" s="11"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
@@ -3955,14 +3917,14 @@
     </row>
     <row r="5" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>27</v>
@@ -3973,21 +3935,21 @@
     </row>
     <row r="7" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -3996,48 +3958,48 @@
         <v>46</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>26</v>
@@ -4072,7 +4034,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" s="15"/>
       <c r="E14" s="15"/>
@@ -4080,7 +4042,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>27</v>
@@ -4115,45 +4077,45 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C19" s="8"/>
     </row>
@@ -4162,26 +4124,26 @@
         <v>46</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F21" s="17"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>5</v>
@@ -4192,7 +4154,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15">
@@ -4201,7 +4163,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>27</v>
@@ -4212,13 +4174,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E25" s="19"/>
     </row>
@@ -4227,10 +4189,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C27" s="8"/>
     </row>
@@ -4239,27 +4201,27 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>39</v>
@@ -4273,14 +4235,14 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>27</v>
@@ -4294,16 +4256,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4314,16 +4276,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 B22:C22 B30:D30 B13:F13 H13:K13" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 B22:C22 B30:D30 B13:F13 H13:K13" xr:uid="{8E5D7487-CF97-464D-9562-DB2B527406BB}">
       <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B15:D15 B32 B24 F15:K15" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B15:D15 B32 B24 F15:K15" xr:uid="{D1C12543-0413-4FFA-9D76-746A43FB4CF6}">
       <formula1>"k,m,k&amp;m,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C32:D32 C24 E15" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C32:D32 C24 E15" xr:uid="{970DC511-966C-45B6-87D7-BA5ADB48D357}">
       <formula1>"k,m,k&amp;m"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13" xr:uid="{BA2A014C-EB16-4549-A2DB-B383B8A25FCF}">
       <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext,smalldatetime"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4332,11 +4294,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F506D6B7-3E6F-45FA-91C1-7913AE5D78D4}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4350,10 +4312,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C1" s="8"/>
     </row>
@@ -4362,30 +4324,30 @@
         <v>46</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>26</v>
@@ -4402,14 +4364,14 @@
     </row>
     <row r="5" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>27</v>
@@ -4426,29 +4388,31 @@
     </row>
     <row r="7" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -4457,28 +4421,28 @@
         <v>46</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>5</v>
@@ -4492,14 +4456,14 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>27</v>
@@ -4513,24 +4477,24 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C18" s="8"/>
     </row>
@@ -4539,27 +4503,27 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>39</v>
@@ -4573,7 +4537,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15">
@@ -4582,7 +4546,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>27</v>
@@ -4596,28 +4560,28 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 C15:D15 C23:D23" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 C15:D15 C23:D23" xr:uid="{9FE8C4B3-8378-4985-99C5-079CAE9C53D9}">
       <formula1>"k,m,k&amp;m"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:E6 B15 B23" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:E6 B15 B23" xr:uid="{4605203D-75CF-4343-B8B0-E907ED628E06}">
       <formula1>"k,m,k&amp;m,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13 B4:E4 B21:D21" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13 B4:E4 B21:D21" xr:uid="{DD3CF57C-BCF2-4845-A8D9-7E46E070E1C0}">
       <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4626,16 +4590,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D6CB52-9EB7-455C-8F84-F35A52C5F1B4}">
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
@@ -4643,38 +4606,35 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -4691,13 +4651,10 @@
       <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -4708,13 +4665,10 @@
       <c r="F4">
         <v>20</v>
       </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
@@ -4731,39 +4685,33 @@
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E6" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -4815,15 +4763,15 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -4831,49 +4779,49 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -4920,7 +4868,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -4952,12 +4900,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>29</v>
@@ -4999,664 +4947,66 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I20" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J20" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="P23" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>20</v>
-      </c>
-      <c r="J25">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="O25" s="15">
-        <v>20</v>
-      </c>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>305</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" t="s">
-        <v>82</v>
-      </c>
-      <c r="M27" t="s">
-        <v>93</v>
-      </c>
-      <c r="N27" t="s">
-        <v>91</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="B29" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>20</v>
-      </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
-      <c r="F32" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="B36" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39">
-        <v>20</v>
-      </c>
-      <c r="G39">
-        <v>20</v>
-      </c>
-      <c r="H39">
-        <v>20</v>
-      </c>
-      <c r="I39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" t="s">
-        <v>80</v>
-      </c>
-      <c r="I41" t="s">
-        <v>42</v>
-      </c>
-      <c r="J41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="B43" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>20</v>
-      </c>
-      <c r="F46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" t="s">
-        <v>205</v>
-      </c>
-      <c r="E48" t="s">
-        <v>313</v>
-      </c>
-      <c r="F48" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:G26 K26 N26 P33 M33 J33 B33 B5:G5 B12 B19:O19 B26:D26 B40:E40 Q26 I40:J40 B47:F47" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:F3 B10:C10 M17:O17 B17:K17" xr:uid="{672A8DB7-17F9-4041-9274-565953294B28}">
+      <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:F5 B12 B19:O19" xr:uid="{46A27783-6485-4EF8-89C7-A4A0624C58E8}">
       <formula1>"k,m,k&amp;m,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26:J26 L26:M26 O26:P26 E26 C33:I33 N33:O33 K33:L33 C12 F40:H40" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{60417A34-0ECB-4D94-89CD-F63C40054958}">
       <formula1>"k,m,k&amp;m"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G3 B31:P31 B10:C10 M17:O17 B17:K17 B24:Q24 B38:H38 J38 B45:F45" xr:uid="{00000000-0002-0000-0600-000002000000}">
-      <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17 I38" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17" xr:uid="{6BC1AFAF-92C1-4FFF-9FDF-59CE7671F298}">
       <formula1>"tinyint,smallint,int,nchar,nvarchar,ntext,smalldatetime"</formula1>
     </dataValidation>
   </dataValidations>
